--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.753370666666667</v>
+        <v>4.880019333333333</v>
       </c>
       <c r="H2">
-        <v>8.260111999999999</v>
+        <v>14.640058</v>
       </c>
       <c r="I2">
-        <v>0.004419655369974359</v>
+        <v>0.006105125757289998</v>
       </c>
       <c r="J2">
-        <v>0.004457275778118894</v>
+        <v>0.006217688771160608</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.193220000000002</v>
+        <v>4.850457666666666</v>
       </c>
       <c r="N2">
-        <v>24.57966</v>
+        <v>14.551373</v>
       </c>
       <c r="O2">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="P2">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
       <c r="Q2">
-        <v>22.55897161354667</v>
+        <v>23.67032718884822</v>
       </c>
       <c r="R2">
-        <v>203.03074452192</v>
+        <v>213.032944699634</v>
       </c>
       <c r="S2">
-        <v>0.0008202682593989009</v>
+        <v>0.0008044478010718509</v>
       </c>
       <c r="T2">
-        <v>0.0008758711820035958</v>
+        <v>0.0008423844661364394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.753370666666667</v>
+        <v>4.880019333333333</v>
       </c>
       <c r="H3">
-        <v>8.260111999999999</v>
+        <v>14.640058</v>
       </c>
       <c r="I3">
-        <v>0.004419655369974359</v>
+        <v>0.006105125757289998</v>
       </c>
       <c r="J3">
-        <v>0.004457275778118894</v>
+        <v>0.006217688771160608</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>22.973198</v>
       </c>
       <c r="O3">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="P3">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
       <c r="Q3">
-        <v>21.08457649757511</v>
+        <v>37.36988346283156</v>
       </c>
       <c r="R3">
-        <v>189.761188478176</v>
+        <v>336.328951165484</v>
       </c>
       <c r="S3">
-        <v>0.0007666576810373417</v>
+        <v>0.001270034010858511</v>
       </c>
       <c r="T3">
-        <v>0.0008186265427049293</v>
+        <v>0.001329927088851115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.753370666666667</v>
+        <v>4.880019333333333</v>
       </c>
       <c r="H4">
-        <v>8.260111999999999</v>
+        <v>14.640058</v>
       </c>
       <c r="I4">
-        <v>0.004419655369974359</v>
+        <v>0.006105125757289998</v>
       </c>
       <c r="J4">
-        <v>0.004457275778118894</v>
+        <v>0.006217688771160608</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.307941</v>
+        <v>10.683974</v>
       </c>
       <c r="N4">
-        <v>33.923823</v>
+        <v>32.051922</v>
       </c>
       <c r="O4">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="P4">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
       <c r="Q4">
-        <v>31.13495304979733</v>
+        <v>52.13799967683067</v>
       </c>
       <c r="R4">
-        <v>280.214577448176</v>
+        <v>469.241997091476</v>
       </c>
       <c r="S4">
-        <v>0.001132100087811076</v>
+        <v>0.001771935759809503</v>
       </c>
       <c r="T4">
-        <v>0.001208840925752869</v>
+        <v>0.001855497842204774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.753370666666667</v>
+        <v>4.880019333333333</v>
       </c>
       <c r="H5">
-        <v>8.260111999999999</v>
+        <v>14.640058</v>
       </c>
       <c r="I5">
-        <v>0.004419655369974359</v>
+        <v>0.006105125757289998</v>
       </c>
       <c r="J5">
-        <v>0.004457275778118894</v>
+        <v>0.006217688771160608</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.351732999999999</v>
+        <v>3.028939</v>
       </c>
       <c r="N5">
-        <v>14.703466</v>
+        <v>6.057878000000001</v>
       </c>
       <c r="O5">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="P5">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
       <c r="Q5">
-        <v>20.24204599136533</v>
+        <v>14.78128087948734</v>
       </c>
       <c r="R5">
-        <v>121.452275948192</v>
+        <v>88.687685276924</v>
       </c>
       <c r="S5">
-        <v>0.0007360223735570946</v>
+        <v>0.0005023491566323201</v>
       </c>
       <c r="T5">
-        <v>0.0005239430547440314</v>
+        <v>0.0003506928401154779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.753370666666667</v>
+        <v>4.880019333333333</v>
       </c>
       <c r="H6">
-        <v>8.260111999999999</v>
+        <v>14.640058</v>
       </c>
       <c r="I6">
-        <v>0.004419655369974359</v>
+        <v>0.006105125757289998</v>
       </c>
       <c r="J6">
-        <v>0.004457275778118894</v>
+        <v>0.006217688771160608</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.634942000000001</v>
+        <v>10.59005333333333</v>
       </c>
       <c r="N6">
-        <v>28.904826</v>
+        <v>31.77016</v>
       </c>
       <c r="O6">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="P6">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
       <c r="Q6">
-        <v>26.52856667783467</v>
+        <v>51.67966500769777</v>
       </c>
       <c r="R6">
-        <v>238.757100100512</v>
+        <v>465.11698506928</v>
       </c>
       <c r="S6">
-        <v>0.0009646069681699458</v>
+        <v>0.001756359028917812</v>
       </c>
       <c r="T6">
-        <v>0.001029994072913468</v>
+        <v>0.001839186533852803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.479273</v>
       </c>
       <c r="I7">
-        <v>0.02433413894835565</v>
+        <v>0.01896554515119568</v>
       </c>
       <c r="J7">
-        <v>0.02454127279985509</v>
+        <v>0.01931522163728093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.193220000000002</v>
+        <v>4.850457666666666</v>
       </c>
       <c r="N7">
-        <v>24.57966</v>
+        <v>14.551373</v>
       </c>
       <c r="O7">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="P7">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
       <c r="Q7">
-        <v>124.2072297096867</v>
+        <v>73.53176279909211</v>
       </c>
       <c r="R7">
-        <v>1117.86506738718</v>
+        <v>661.785865191829</v>
       </c>
       <c r="S7">
-        <v>0.004516307297338998</v>
+        <v>0.002499013402760863</v>
       </c>
       <c r="T7">
-        <v>0.004822450906134713</v>
+        <v>0.002616863478708785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.479273</v>
       </c>
       <c r="I8">
-        <v>0.02433413894835565</v>
+        <v>0.01896554515119568</v>
       </c>
       <c r="J8">
-        <v>0.02454127279985509</v>
+        <v>0.01931522163728093</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>22.973198</v>
       </c>
       <c r="O8">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="P8">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
       <c r="Q8">
         <v>116.0893715027838</v>
@@ -948,10 +948,10 @@
         <v>1044.804343525054</v>
       </c>
       <c r="S8">
-        <v>0.00422113331797973</v>
+        <v>0.003945354827086012</v>
       </c>
       <c r="T8">
-        <v>0.004507268184828927</v>
+        <v>0.004131412399046173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.479273</v>
       </c>
       <c r="I9">
-        <v>0.02433413894835565</v>
+        <v>0.01896554515119568</v>
       </c>
       <c r="J9">
-        <v>0.02454127279985509</v>
+        <v>0.01931522163728093</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.307941</v>
+        <v>10.683974</v>
       </c>
       <c r="N9">
-        <v>33.923823</v>
+        <v>32.051922</v>
       </c>
       <c r="O9">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="P9">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
       <c r="Q9">
-        <v>171.4256452689643</v>
+        <v>161.9664567569673</v>
       </c>
       <c r="R9">
-        <v>1542.830807420679</v>
+        <v>1457.698110812706</v>
       </c>
       <c r="S9">
-        <v>0.006233219229579924</v>
+        <v>0.005504510307188591</v>
       </c>
       <c r="T9">
-        <v>0.006655745887693467</v>
+        <v>0.005764095532718643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.479273</v>
       </c>
       <c r="I10">
-        <v>0.02433413894835565</v>
+        <v>0.01896554515119568</v>
       </c>
       <c r="J10">
-        <v>0.02454127279985509</v>
+        <v>0.01931522163728093</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.351732999999999</v>
+        <v>3.028939</v>
       </c>
       <c r="N10">
-        <v>14.703466</v>
+        <v>6.057878000000001</v>
       </c>
       <c r="O10">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="P10">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
       <c r="Q10">
-        <v>111.4504907100363</v>
+        <v>45.91798122711567</v>
       </c>
       <c r="R10">
-        <v>668.7029442602179</v>
+        <v>275.507887362694</v>
       </c>
       <c r="S10">
-        <v>0.004052458666554531</v>
+        <v>0.001560545350011663</v>
       </c>
       <c r="T10">
-        <v>0.002884773139051595</v>
+        <v>0.001089425698638432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.479273</v>
       </c>
       <c r="I11">
-        <v>0.02433413894835565</v>
+        <v>0.01896554515119568</v>
       </c>
       <c r="J11">
-        <v>0.02454127279985509</v>
+        <v>0.01931522163728093</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.634942000000001</v>
+        <v>10.59005333333333</v>
       </c>
       <c r="N11">
-        <v>28.904826</v>
+        <v>31.77016</v>
       </c>
       <c r="O11">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="P11">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
       <c r="Q11">
-        <v>146.0633858523887</v>
+        <v>160.5426422104088</v>
       </c>
       <c r="R11">
-        <v>1314.570472671498</v>
+        <v>1444.88377989368</v>
       </c>
       <c r="S11">
-        <v>0.005311020436902462</v>
+        <v>0.005456121264148548</v>
       </c>
       <c r="T11">
-        <v>0.005671034682146385</v>
+        <v>0.005713424528168902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>306.75059</v>
+        <v>366.502594</v>
       </c>
       <c r="H12">
-        <v>920.2517700000001</v>
+        <v>1099.507782</v>
       </c>
       <c r="I12">
-        <v>0.4923898945933069</v>
+        <v>0.4585113856945783</v>
       </c>
       <c r="J12">
-        <v>0.4965811509810085</v>
+        <v>0.4669651711724849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.193220000000002</v>
+        <v>4.850457666666666</v>
       </c>
       <c r="N12">
-        <v>24.57966</v>
+        <v>14.551373</v>
       </c>
       <c r="O12">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="P12">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
       <c r="Q12">
-        <v>2513.275068999801</v>
+        <v>1777.705316920521</v>
       </c>
       <c r="R12">
-        <v>22619.4756209982</v>
+        <v>15999.34785228469</v>
       </c>
       <c r="S12">
-        <v>0.09138536106854941</v>
+        <v>0.0604161962672066</v>
       </c>
       <c r="T12">
-        <v>0.09758003348269384</v>
+        <v>0.06326534197835354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>306.75059</v>
+        <v>366.502594</v>
       </c>
       <c r="H13">
-        <v>920.2517700000001</v>
+        <v>1099.507782</v>
       </c>
       <c r="I13">
-        <v>0.4923898945933069</v>
+        <v>0.4585113856945783</v>
       </c>
       <c r="J13">
-        <v>0.4965811509810085</v>
+        <v>0.4669651711724849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>22.973198</v>
       </c>
       <c r="O13">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="P13">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
       <c r="Q13">
-        <v>2349.014013562274</v>
+        <v>2806.578886491871</v>
       </c>
       <c r="R13">
-        <v>21141.12612206046</v>
+        <v>25259.20997842684</v>
       </c>
       <c r="S13">
-        <v>0.08541265396385779</v>
+        <v>0.09538297446250593</v>
       </c>
       <c r="T13">
-        <v>0.09120245886414031</v>
+        <v>0.09988110591395243</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>306.75059</v>
+        <v>366.502594</v>
       </c>
       <c r="H14">
-        <v>920.2517700000001</v>
+        <v>1099.507782</v>
       </c>
       <c r="I14">
-        <v>0.4923898945933069</v>
+        <v>0.4585113856945783</v>
       </c>
       <c r="J14">
-        <v>0.4965811509810085</v>
+        <v>0.4669651711724849</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.307941</v>
+        <v>10.683974</v>
       </c>
       <c r="N14">
-        <v>33.923823</v>
+        <v>32.051922</v>
       </c>
       <c r="O14">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="P14">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
       <c r="Q14">
-        <v>3468.71757343519</v>
+        <v>3915.704185228557</v>
       </c>
       <c r="R14">
-        <v>31218.45816091671</v>
+        <v>35241.33766705701</v>
       </c>
       <c r="S14">
-        <v>0.1261262691868219</v>
+        <v>0.1330771474480928</v>
       </c>
       <c r="T14">
-        <v>0.1346758980474498</v>
+        <v>0.1393528848716553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>306.75059</v>
+        <v>366.502594</v>
       </c>
       <c r="H15">
-        <v>920.2517700000001</v>
+        <v>1099.507782</v>
       </c>
       <c r="I15">
-        <v>0.4923898945933069</v>
+        <v>0.4585113856945783</v>
       </c>
       <c r="J15">
-        <v>0.4965811509810085</v>
+        <v>0.4669651711724849</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.351732999999999</v>
+        <v>3.028939</v>
       </c>
       <c r="N15">
-        <v>14.703466</v>
+        <v>6.057878000000001</v>
       </c>
       <c r="O15">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="P15">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
       <c r="Q15">
-        <v>2255.14843527247</v>
+        <v>1110.114000567766</v>
       </c>
       <c r="R15">
-        <v>13530.89061163482</v>
+        <v>6660.684003406597</v>
       </c>
       <c r="S15">
-        <v>0.08199960146127772</v>
+        <v>0.03772777450733959</v>
       </c>
       <c r="T15">
-        <v>0.05837203218399482</v>
+        <v>0.02633797672103825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>306.75059</v>
+        <v>366.502594</v>
       </c>
       <c r="H16">
-        <v>920.2517700000001</v>
+        <v>1099.507782</v>
       </c>
       <c r="I16">
-        <v>0.4923898945933069</v>
+        <v>0.4585113856945783</v>
       </c>
       <c r="J16">
-        <v>0.4965811509810085</v>
+        <v>0.4669651711724849</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.634942000000001</v>
+        <v>10.59005333333333</v>
       </c>
       <c r="N16">
-        <v>28.904826</v>
+        <v>31.77016</v>
       </c>
       <c r="O16">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="P16">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
       <c r="Q16">
-        <v>2955.524143115781</v>
+        <v>3881.282017265013</v>
       </c>
       <c r="R16">
-        <v>26599.71728804202</v>
+        <v>34931.53815538512</v>
       </c>
       <c r="S16">
-        <v>0.1074660089128</v>
+        <v>0.1319072930094333</v>
       </c>
       <c r="T16">
-        <v>0.1147507284027297</v>
+        <v>0.1381278616874853</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.774352</v>
+        <v>43.412512</v>
       </c>
       <c r="H17">
-        <v>31.548704</v>
+        <v>86.825024</v>
       </c>
       <c r="I17">
-        <v>0.02532067344534763</v>
+        <v>0.05431102360383977</v>
       </c>
       <c r="J17">
-        <v>0.01702413649721005</v>
+        <v>0.03687492063081651</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.193220000000002</v>
+        <v>4.850457666666666</v>
       </c>
       <c r="N17">
-        <v>24.57966</v>
+        <v>14.551373</v>
       </c>
       <c r="O17">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="P17">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
       <c r="Q17">
-        <v>129.24273629344</v>
+        <v>210.5705516596587</v>
       </c>
       <c r="R17">
-        <v>775.4564177606402</v>
+        <v>1263.423309957952</v>
       </c>
       <c r="S17">
-        <v>0.00469940368539273</v>
+        <v>0.007156344561764442</v>
       </c>
       <c r="T17">
-        <v>0.003345305809795505</v>
+        <v>0.004995885363946203</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.774352</v>
+        <v>43.412512</v>
       </c>
       <c r="H18">
-        <v>31.548704</v>
+        <v>86.825024</v>
       </c>
       <c r="I18">
-        <v>0.02532067344534763</v>
+        <v>0.05431102360383977</v>
       </c>
       <c r="J18">
-        <v>0.01702413649721005</v>
+        <v>0.03687492063081651</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>22.973198</v>
       </c>
       <c r="O18">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="P18">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
       <c r="Q18">
-        <v>120.7957706058987</v>
+        <v>332.4414112844587</v>
       </c>
       <c r="R18">
-        <v>724.774623635392</v>
+        <v>1994.648467706752</v>
       </c>
       <c r="S18">
-        <v>0.004392263007155383</v>
+        <v>0.01129818612811573</v>
       </c>
       <c r="T18">
-        <v>0.003126665411115633</v>
+        <v>0.007887328821221076</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.774352</v>
+        <v>43.412512</v>
       </c>
       <c r="H19">
-        <v>31.548704</v>
+        <v>86.825024</v>
       </c>
       <c r="I19">
-        <v>0.02532067344534763</v>
+        <v>0.05431102360383977</v>
       </c>
       <c r="J19">
-        <v>0.01702413649721005</v>
+        <v>0.03687492063081651</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.307941</v>
+        <v>10.683974</v>
       </c>
       <c r="N19">
-        <v>33.923823</v>
+        <v>32.051922</v>
       </c>
       <c r="O19">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="P19">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
       <c r="Q19">
-        <v>178.375441729232</v>
+        <v>463.8181494826881</v>
       </c>
       <c r="R19">
-        <v>1070.252650375392</v>
+        <v>2782.908896896128</v>
       </c>
       <c r="S19">
-        <v>0.006485921238487864</v>
+        <v>0.01576308968911718</v>
       </c>
       <c r="T19">
-        <v>0.004617051748167972</v>
+        <v>0.01100430371801653</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.774352</v>
+        <v>43.412512</v>
       </c>
       <c r="H20">
-        <v>31.548704</v>
+        <v>86.825024</v>
       </c>
       <c r="I20">
-        <v>0.02532067344534763</v>
+        <v>0.05431102360383977</v>
       </c>
       <c r="J20">
-        <v>0.01702413649721005</v>
+        <v>0.03687492063081651</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.351732999999999</v>
+        <v>3.028939</v>
       </c>
       <c r="N20">
-        <v>14.703466</v>
+        <v>6.057878000000001</v>
       </c>
       <c r="O20">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="P20">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
       <c r="Q20">
-        <v>115.968824152016</v>
+        <v>131.493850684768</v>
       </c>
       <c r="R20">
-        <v>463.875296608064</v>
+        <v>525.975402739072</v>
       </c>
       <c r="S20">
-        <v>0.004216750087782745</v>
+        <v>0.004468883686900109</v>
       </c>
       <c r="T20">
-        <v>0.002001150147476843</v>
+        <v>0.002079835630409014</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.774352</v>
+        <v>43.412512</v>
       </c>
       <c r="H21">
-        <v>31.548704</v>
+        <v>86.825024</v>
       </c>
       <c r="I21">
-        <v>0.02532067344534763</v>
+        <v>0.05431102360383977</v>
       </c>
       <c r="J21">
-        <v>0.01702413649721005</v>
+        <v>0.03687492063081651</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.634942000000001</v>
+        <v>10.59005333333333</v>
       </c>
       <c r="N21">
-        <v>28.904826</v>
+        <v>31.77016</v>
       </c>
       <c r="O21">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="P21">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
       <c r="Q21">
-        <v>151.984966607584</v>
+        <v>459.7408174139733</v>
       </c>
       <c r="R21">
-        <v>911.909799645504</v>
+        <v>2758.44490448384</v>
       </c>
       <c r="S21">
-        <v>0.00552633542652891</v>
+        <v>0.01562451953794231</v>
       </c>
       <c r="T21">
-        <v>0.003933963380654092</v>
+        <v>0.01090756709722369</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>282.545044</v>
+        <v>369.3766176666666</v>
       </c>
       <c r="H22">
-        <v>847.635132</v>
+        <v>1108.129853</v>
       </c>
       <c r="I22">
-        <v>0.4535356376430156</v>
+        <v>0.4621069197930963</v>
       </c>
       <c r="J22">
-        <v>0.4573961639438075</v>
+        <v>0.4706269977882571</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.193220000000002</v>
+        <v>4.850457666666666</v>
       </c>
       <c r="N22">
-        <v>24.57966</v>
+        <v>14.551373</v>
       </c>
       <c r="O22">
-        <v>0.1855955251559942</v>
+        <v>0.1317659673285644</v>
       </c>
       <c r="P22">
-        <v>0.1965036999288476</v>
+        <v>0.1354819285975933</v>
       </c>
       <c r="Q22">
-        <v>2314.953705401681</v>
+        <v>1791.645647048685</v>
       </c>
       <c r="R22">
-        <v>20834.58334861512</v>
+        <v>16124.81082343817</v>
       </c>
       <c r="S22">
-        <v>0.08417418484531415</v>
+        <v>0.06088996529576066</v>
       </c>
       <c r="T22">
-        <v>0.08988003854821992</v>
+        <v>0.06376145331044836</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>282.545044</v>
+        <v>369.3766176666666</v>
       </c>
       <c r="H23">
-        <v>847.635132</v>
+        <v>1108.129853</v>
       </c>
       <c r="I23">
-        <v>0.4535356376430156</v>
+        <v>0.4621069197930963</v>
       </c>
       <c r="J23">
-        <v>0.4573961639438075</v>
+        <v>0.4706269977882571</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>22.973198</v>
       </c>
       <c r="O23">
-        <v>0.1734654892428387</v>
+        <v>0.208027493838598</v>
       </c>
       <c r="P23">
-        <v>0.1836607343713461</v>
+        <v>0.2138941233307932</v>
       </c>
       <c r="Q23">
-        <v>2163.654413243571</v>
+        <v>2828.587391408877</v>
       </c>
       <c r="R23">
-        <v>19472.88971919214</v>
+        <v>25457.28652267989</v>
       </c>
       <c r="S23">
-        <v>0.07867278127280854</v>
+        <v>0.09613094441003185</v>
       </c>
       <c r="T23">
-        <v>0.08400571536855631</v>
+        <v>0.1006643491077224</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>282.545044</v>
+        <v>369.3766176666666</v>
       </c>
       <c r="H24">
-        <v>847.635132</v>
+        <v>1108.129853</v>
       </c>
       <c r="I24">
-        <v>0.4535356376430156</v>
+        <v>0.4621069197930963</v>
       </c>
       <c r="J24">
-        <v>0.4573961639438075</v>
+        <v>0.4706269977882571</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.307941</v>
+        <v>10.683974</v>
       </c>
       <c r="N24">
-        <v>33.923823</v>
+        <v>32.051922</v>
       </c>
       <c r="O24">
-        <v>0.2561512138485232</v>
+        <v>0.290237389081408</v>
       </c>
       <c r="P24">
-        <v>0.2712062223493464</v>
+        <v>0.2984224380626923</v>
       </c>
       <c r="Q24">
-        <v>3195.002687394404</v>
+        <v>3946.410179358607</v>
       </c>
       <c r="R24">
-        <v>28755.02418654964</v>
+        <v>35517.69161422747</v>
       </c>
       <c r="S24">
-        <v>0.1161737041058224</v>
+        <v>0.1341207058771999</v>
       </c>
       <c r="T24">
-        <v>0.1240486857402824</v>
+        <v>0.1404456560980969</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>282.545044</v>
+        <v>369.3766176666666</v>
       </c>
       <c r="H25">
-        <v>847.635132</v>
+        <v>1108.129853</v>
       </c>
       <c r="I25">
-        <v>0.4535356376430156</v>
+        <v>0.4621069197930963</v>
       </c>
       <c r="J25">
-        <v>0.4573961639438075</v>
+        <v>0.4706269977882571</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.351732999999999</v>
+        <v>3.028939</v>
       </c>
       <c r="N25">
-        <v>14.703466</v>
+        <v>6.057878000000001</v>
       </c>
       <c r="O25">
-        <v>0.1665338837406602</v>
+        <v>0.08228317918471638</v>
       </c>
       <c r="P25">
-        <v>0.1175478208721362</v>
+        <v>0.05640244358033648</v>
       </c>
       <c r="Q25">
-        <v>2077.195723961252</v>
+        <v>1118.819242938656</v>
       </c>
       <c r="R25">
-        <v>12463.17434376751</v>
+        <v>6712.915457631934</v>
       </c>
       <c r="S25">
-        <v>0.07552905115148816</v>
+        <v>0.0380236264838327</v>
       </c>
       <c r="T25">
-        <v>0.05376592234686894</v>
+        <v>0.02654451269013531</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>282.545044</v>
+        <v>369.3766176666666</v>
       </c>
       <c r="H26">
-        <v>847.635132</v>
+        <v>1108.129853</v>
       </c>
       <c r="I26">
-        <v>0.4535356376430156</v>
+        <v>0.4621069197930963</v>
       </c>
       <c r="J26">
-        <v>0.4573961639438075</v>
+        <v>0.4706269977882571</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.634942000000001</v>
+        <v>10.59005333333333</v>
       </c>
       <c r="N26">
-        <v>28.904826</v>
+        <v>31.77016</v>
       </c>
       <c r="O26">
-        <v>0.2182538880119836</v>
+        <v>0.2876859705667131</v>
       </c>
       <c r="P26">
-        <v>0.2310815224783236</v>
+        <v>0.2957990664285848</v>
       </c>
       <c r="Q26">
-        <v>2722.305111327448</v>
+        <v>3911.718081176275</v>
       </c>
       <c r="R26">
-        <v>24500.74600194703</v>
+        <v>35205.46273058647</v>
       </c>
       <c r="S26">
-        <v>0.0989859162675823</v>
+        <v>0.1329416777262711</v>
       </c>
       <c r="T26">
-        <v>0.1056958019398799</v>
+        <v>0.1392110265818541</v>
       </c>
     </row>
   </sheetData>
